--- a/img/products/z-info.xlsx
+++ b/img/products/z-info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -131,13 +131,73 @@
   </si>
   <si>
     <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-og-re2pect-item-13158286.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Max Deluxe "Skepta" sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/nike-air-max-deluxe-skepta-sneakers-item-13555708.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/nike-air-max-95-qs-sneakers-item-17501755.aspx?storeid=9671</t>
+  </si>
+  <si>
+    <t>Air Max 95 QS sneakers</t>
+  </si>
+  <si>
+    <t>Air Max 98 “La Mezcla - On Air” sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/nike-air-max-98-la-mezcla-on-air-sneakers-item-14040765.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Max 95 low-top sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/nike-air-max-95-low-top-sneakers-item-17992247.aspx?storeid=9843</t>
+  </si>
+  <si>
+    <t>Air Max 270 React sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/nike-air-max-270-react-sneakers-item-15752380.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/nike-air-max-1-anniversary-item-12960249.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Max 1 Anniversary</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/nike-air-max-97-low-top-sneakers-item-13483908.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Max 97 low-top sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/nike-air-max-90-mars-landing-sneakers-item-13918016.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Max 90 Mars Landing sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/nike-nike-air-max-1-prm-limeade-sneakers-item-15947633.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Max 1 PRM "Limeade" sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/nike-air-max-97-lace-up-sneakers-item-17832804.aspx?storeid=9843</t>
+  </si>
+  <si>
+    <t>Air Max 97 lace-up sneakers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +229,18 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Var(--fontNormal)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,6 +337,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,23 +649,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:F21"/>
+  <dimension ref="D1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
     <col min="5" max="5" width="82" customWidth="1"/>
     <col min="6" max="6" width="127.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:6" ht="15.75" customHeight="1"/>
+    <row r="2" spans="4:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="4:6" ht="15.75" thickBot="1">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:6" ht="16.5" thickBot="1">
       <c r="D4" s="2">
         <v>1</v>
       </c>
@@ -608,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:6" ht="16.5" thickBot="1">
       <c r="D5" s="2">
         <v>2</v>
       </c>
@@ -619,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:6" ht="16.5" thickBot="1">
       <c r="D6" s="2">
         <v>3</v>
       </c>
@@ -630,7 +709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:6" ht="16.5" thickBot="1">
       <c r="D7" s="2">
         <v>4</v>
       </c>
@@ -641,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:6" ht="16.5" thickBot="1">
       <c r="D8" s="2">
         <v>5</v>
       </c>
@@ -652,7 +731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:6" ht="16.5" thickBot="1">
       <c r="D9" s="2">
         <v>6</v>
       </c>
@@ -663,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:6" ht="16.5" thickBot="1">
       <c r="D10" s="2">
         <v>7</v>
       </c>
@@ -674,7 +753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:6" ht="16.5" thickBot="1">
       <c r="D11" s="2">
         <v>8</v>
       </c>
@@ -685,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:6" ht="16.5" thickBot="1">
       <c r="D12" s="2">
         <v>9</v>
       </c>
@@ -696,7 +775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:6" ht="16.5" thickBot="1">
       <c r="D13" s="2">
         <v>10</v>
       </c>
@@ -707,7 +786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:6" ht="16.5" thickBot="1">
       <c r="D14" s="2">
         <v>11</v>
       </c>
@@ -718,7 +797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:6" ht="16.5" thickBot="1">
       <c r="D15" s="2">
         <v>12</v>
       </c>
@@ -729,7 +808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:6" ht="16.5" thickBot="1">
       <c r="D16" s="2">
         <v>13</v>
       </c>
@@ -740,7 +819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" ht="16.5" thickBot="1">
       <c r="D17" s="2">
         <v>14</v>
       </c>
@@ -751,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" ht="16.5" thickBot="1">
       <c r="D18" s="2">
         <v>15</v>
       </c>
@@ -762,7 +841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" ht="16.5" thickBot="1">
       <c r="D19" s="2">
         <v>16</v>
       </c>
@@ -773,7 +852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" ht="16.5" thickBot="1">
       <c r="D20" s="2">
         <v>17</v>
       </c>
@@ -784,7 +863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:6" ht="16.5" thickBot="1">
       <c r="D21" s="2">
         <v>18</v>
       </c>
@@ -793,6 +872,576 @@
       </c>
       <c r="F21" s="5" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D22" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D24" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D25" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D26" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D27" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D28" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D29" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D30" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D31" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D32" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D33" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D34" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D35" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D36" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D37" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D38" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D39" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D40" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D41" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D42" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D43" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D44" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D45" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D46" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D47" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D48" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D49" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D50" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D51" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D52" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D53" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D54" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D55" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D56" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D57" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D58" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D59" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D60" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D61" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D62" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D63" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D64" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D65" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D66" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D67" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D68" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D69" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D70" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D71" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D72" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D73" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D74" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D75" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D76" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D77" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D78" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D79" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D80" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D81" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D82" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D83" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D84" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D85" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D86" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D87" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D88" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D89" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D90" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D91" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D92" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D93" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D94" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D95" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D96" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D97" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D98" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D99" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D100" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D101" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D102" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D103" s="2">
+        <v>100</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D104" s="2">
+        <v>101</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F104" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D105" s="2">
+        <v>102</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D106" s="2">
+        <v>103</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D107" s="2">
+        <v>104</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D108" s="2">
+        <v>105</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D109" s="2">
+        <v>106</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D110" s="2">
+        <v>107</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D111" s="2">
+        <v>108</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D112" s="2">
+        <v>109</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D113" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D114" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D115" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D116" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D117" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D118" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D119" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D120" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D121" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D122" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D123" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/img/products/z-info.xlsx
+++ b/img/products/z-info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -191,6 +191,54 @@
   </si>
   <si>
     <t>Air Max 97 lace-up sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-x-off-white-the-10th-nike-air-force-1-low-item-13678493.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>The 10th: Nike Air Force 1 Low</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-nike-air-force-1-07-lv8-3-removable-swoosh-sneakers-item-14456024.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 '07 LV8 3 'Removable Swoosh' sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-air-force-1-mid-07-nike-x-supreme-sneakers-item-13123236.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Force 1 Mid '07 / Nike x Supreme sneakers</t>
+  </si>
+  <si>
+    <t>Alyx Air Force 1 High sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-x-alyx-air-force-1-high-sneakers-item-17867141.aspx?storeid=11218&amp;rtype=inspire_portal_pdp_generic_a&amp;rpos=1&amp;rid=e2c99d9e-4f96-4afb-8aab-d09e04647c67</t>
+  </si>
+  <si>
+    <t>Air Force 1 high-top sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-air-force-1-high-top-sneakers-item-15993868.aspx</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-x-supreme-air-force-1-high-top-sneakers-item-14147512.aspx?storeid=11218&amp;rtype=inspire_portal_pdp_generic_a&amp;rpos=9&amp;rid=32f60832-3d50-4a1a-9253-f45bb968730b</t>
+  </si>
+  <si>
+    <t>Supreme Air Force 1 high-top sneakers</t>
+  </si>
+  <si>
+    <t>Air Force 1 sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-air-force-1-sneakers-item-16061166.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Force 1 boots</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-air-force-1-boots-item-18007892.aspx?storeid=9671</t>
   </si>
 </sst>
 </file>
@@ -649,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:F123"/>
+  <dimension ref="D1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="D158" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1444,6 +1492,504 @@
         <v>120</v>
       </c>
     </row>
+    <row r="124" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D124" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D125" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D126" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D127" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D128" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D129" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D130" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D131" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D132" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D133" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D134" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D135" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D136" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D137" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D138" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D139" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D140" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D141" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D142" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D143" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D144" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D145" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D146" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D147" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D148" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D149" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D150" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D151" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D152" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D153" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D154" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D155" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D156" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D157" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D158" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D159" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D160" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D161" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D162" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D163" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D164" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D165" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D166" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D167" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D168" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D169" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D170" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D171" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D172" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D173" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D174" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D175" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D176" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D177" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D178" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D179" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D180" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D181" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D182" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D183" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D184" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D185" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D186" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D187" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D188" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D189" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D190" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D191" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" ht="15.75" thickBot="1">
+      <c r="D192" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D193" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D194" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D195" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D196" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D197" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D198" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D199" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D200" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D201" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D202" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D203" s="2">
+        <v>200</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F203" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="204" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D204" s="2">
+        <v>201</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F204" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D205" s="2">
+        <v>202</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F205" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D206" s="2">
+        <v>203</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F206" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D207" s="2">
+        <v>204</v>
+      </c>
+      <c r="E207" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F207" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D208" s="2">
+        <v>205</v>
+      </c>
+      <c r="E208" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F208" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D209" s="2">
+        <v>206</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F209" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="210" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D210" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="211" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D211" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="212" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D212" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="213" spans="4:6" ht="16.5" thickBot="1">
+      <c r="D213" s="2">
+        <v>210</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F213" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/img/products/z-info.xlsx
+++ b/img/products/z-info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="2355" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -239,6 +239,24 @@
   </si>
   <si>
     <t>https://www.farfetch.com/ad/shopping/men/nike-air-force-1-boots-item-18007892.aspx?storeid=9671</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-air-force-1-lv8-sneakers-item-15776467.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Force 1 LV8 sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-air-force-1-low-sneakers-item-17016618.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Force 1 Low sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/ad/shopping/men/nike-air-force-1-high-sneakers-item-14504130.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Force 1 High sneakers</t>
   </si>
 </sst>
 </file>
@@ -699,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D158" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+    <sheetView tabSelected="1" topLeftCell="D163" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1964,19 +1982,37 @@
         <v>72</v>
       </c>
     </row>
-    <row r="210" spans="4:6" ht="15.75" thickBot="1">
+    <row r="210" spans="4:6" ht="16.5" thickBot="1">
       <c r="D210" s="2">
         <v>207</v>
       </c>
-    </row>
-    <row r="211" spans="4:6" ht="15.75" thickBot="1">
+      <c r="E210" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F210" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="211" spans="4:6" ht="16.5" thickBot="1">
       <c r="D211" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="212" spans="4:6" ht="15.75" thickBot="1">
+      <c r="E211" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F211" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="212" spans="4:6" ht="16.5" thickBot="1">
       <c r="D212" s="2">
         <v>209</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F212" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="213" spans="4:6" ht="16.5" thickBot="1">
